--- a/pembagian.xlsx
+++ b/pembagian.xlsx
@@ -340,8 +340,8 @@
   </sheetPr>
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -599,7 +599,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
